--- a/500all/speech_level/speeches_CHRG-114hhrg93822.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93822.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order, and the committee here today will continue to evaluate the administration's nuclear diplomacy with Iran. That is the subject of the hearing today.    Negotiators face a high-stakes deadline next week. We will hear the administration's case today. But it is critical that the administration hears our bipartisan concerns here.    Deputy Secretary Blinken, this is your first appearance before the committee, and I congratulate you on your position. I wish you well.    And after the hearing, I trust you will be in touch with Secretary Kerry, Under Secretary Sherman and others that are involved in the negotiating process to report on the committee's views and I think this is very important.    This committee has been at the forefront of examining the threat of a nuclear Iran. Much of the pressure that has been brought on the Islamic Republic of Iran and that brought them to the table was put in place by Congress, and it was put in place over the objections of the executive branch.    Now, that is the executive branch whether it was Republican or Democratic administrations, but it is the House of Representatives that has driven this process, and we would have more pressure on Iran today if the administration hadn't pressured the Senate to sit on the Royce-Engel sanctions bill that this committee produced and passed in 2013 and passed, by the way, unanimously--and passed off the House floor 400 to 20.    So Congress is proud of this role and we want to see the administration get a lasting and meaningful agreement. But, unfortunately, the administration's negotiating strategy has been more about managing proliferation than preventing it, and a case in point that I bring up is Iran's uranium enrichment program--the key technology needed in developing a nuclear bomb.    Reportedly, the administration would be agreeable to leaving much of Iran's enrichment capability in place for a decade. If Congress will be asked to roll back its sanctions on Iran, which will certainly fund Iran's terrorist activities when we roll back those sanctions, then there must be a substantial rollback of Iran's nuclear program.    And consider that international inspectors report that Iran has still not revealed its past bomb work despite its commitment to those inspectors to the IAEA to do that, and the IAEA is still concerned about signs of Iran's military-related activities including designing a nuclear payload for a missile.    Iran has not even begun to address these concerns and last fall over 350 members wrote to the Secretary of State expressing deep concerns about this lack of cooperation from Iran. How can we expect Iran to uphold an agreement when they are not meeting their current commitments?    Indeed, we were not surprised to see Iran continue to illicitly procure nuclear technology during these negotiations or that Tehran was caught testing a more advanced centrifuge that would help produce bomb material quicker--a new grade of supersonic centrifuge right in the middle of this process.    This was a violation of the spirit and, in my view, the letter of the interim agreement. Iran's deception is all the more reason that the administration should obtain zero notice anywhere anytime inspections on Iran's declared and undeclared facilities.    You have to have a verification regime in this process that is going to work for us. And there is also the fact that limits placed on Iran's nuclear program as part of the final agreement now being negotiated are going to expire.    They will expire, and that means the final agreement is just another interim step. What you call the ``final'' agreement is an interim step with the real final step being Iran treated as any other non-nuclear weapons state under the Nonproliferation Treaty, thus licensing it to pursue industrial-scale enrichment.    With a deep history of deception, covert procurement, and clandestine facilities, Iran is ``not any other country.'' It is certainly not any other country to be conceded in an industrial-scale nuclear program.    Any meaningful agreement must keep restrictions in place for decades, as over 360 Members of Congress, including every member of this committee, are demanding in a letter to the President this week.    Meanwhile, Iran is intensifying its destructive role in the region. The Islamic Republic of Iran is propping up Assad in Syria while its proxy, Hezbollah, threatens Israel.    Iranian-backed Shi'a militia are killing hopes of a unified, stable Iraq and last month an Iranian-backed militia displaced the government in Yemen, formerly a key counterterrorism partner to the United States.    Many of our allies and partners see Iran pocketing an advantageous nuclear agreement and ramping up its aggression in the region as a result of the hard currency that they will have at their disposal as the sanctions are lifted.    So this committee is prepared to evaluate any agreement to determine if it is in the long-term national security interests of the United States and our allies.    Indeed, as Secretary Kerry testified not long ago, any agreement will have to pass muster with Congress. Those were his words. Yet, that commitment has been muddied by the administration's insistence in recent weeks that Congress will not play a role, and that is not right.    Congress built the sanction structure that brought Iran to the table, and if the President moves to dismantle it, we will have a say.    So I now turn to the ranking member, Mr. Eliot Engel of New York, for his opening remarks.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. Thank you for calling this very important and timely hearing.    Mr. Deputy Secretary, Mr. Under Secretary, welcome to our committee. We are grateful for your service and we look forward to your testimony and I want to congratulate both of you on your new positions.    The chairman's remarks are very similar to mine. We have worked very hard on this committee to have bipartisanship because both the chairman and I agree that if there is one place where we need bipartisanship more than any other place, it involves foreign policy.    And so wherever possible we try to talk with one voice, and I want to associate myself with the chairman's remarks. We have seen a lot of speculative reporting in the press about might or might not be included in the comprehensive nuclear deal with Iran.    Today, we are going to send over a letter to the President signed by 360 Members of Congress in both parties, a majority of each party, talking about some of the things that we are concerned with and we would hope that we could get a prompt response from the White House.    It is truly a very bipartisan letter expressing Congress' strong feelings about things that need to be in the agreement. I want to emphasize--re-emphasize what the chairman said. There really cannot be any marginalization of Congress.    Congress really needs to play a very active and vital role in this whole process and any attempts to sidestep Congress will be resisted on both sides of the aisle. We have seen a lot of speculative reporting in the press about what might or might not be included in a comprehensive nuclear deal with Iran.    We don't technically even know right now if there is going to be a deal, but if there is I think we would all be wise to review the details before passing judgment on whether it is a good deal or bad deal or simply a deal we can live with.    I think it is safe to assume that we are not going to see what I would consider a perfect deal. I have said all along that Iran should have been required to freeze enrichment during the negotiations but they weren't and it is clear that a freeze is not on the table for a comprehensive agreement.    At this stage, we need to focus on making the deal as good as it can be. I am hoping that our witnesses can shed light on a few key areas that, for me, could tip the scales between a bad deal and a deal that we might be able to live with.    First, as part of any comprehensive agreement, we need total clarity about where Iran stands in terms of its ability to weaponize its nuclear material. How far along are they?    Secondly, will the deal give us sufficient time to respond if Iran reneges and presses full throttle toward a nuclear weapon. Is a 1-year break-out period the time until Iran has sufficient enriched uranium to then build a bomb? Is that enough time to catch their violation and react?    Next, how would a comprehensive agreement stop Iran from pursuing a nuclear weapon covertly if they make a decision to sneak out rather than break out? Iran's leaders don't deserve an ounce of trust. We need very strong safeguards.    Lastly, how will we be certain that sanctions relief won't just open the faucet for funding terrorism or fueling the regime's already abysmal human rights record?    In my view, these questions lay out clear markers for what we need to see. Here is the bottom line. If we say yes to a deal, will it be worth unraveling the decades of sanctions and pressure that the United States and our partners have built against Iran?    But if we say no, would we be able to hold the sanctions coalition together, and if we maintain or even increase our sanctions, wouldn't Iran just move full speed ahead toward a bomb?    I know these negotiations have gone on for months and months. I know the P5+1 is under intense pressure to produce something. But we cannot allow those factors to push us into a bad deal being sold as a good deal.    The administration has argued that reaching a deal is the best chance to solve a nuclear crisis diplomatically and avoid another war in the Middle East, that dialing up sanctions at this stage would undermine the talks.    And as I have repeatedly said, I am willing to see what is actually in the deal before passing judgment and I strongly urge my colleagues to do the same.    But make no mistake, Congress will play an important role in the evaluation of a final deal. Again, I want to say that I will not stand by and allow Congress to be marginalized.    Any permanent repeal of sanctions is by law Congress' discretion, and before we do that we must be completely convinced that this deal blocks all of Iran's pathways to a nuclear bomb.    So I look forward to your testimony and hope we can have a frank discussion of these issues and, again, Mr. Chairman, thank you for calling this hearing today.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Blinken</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blinken. Mr. Chairman, thank you very much. It is pleasure to be here.    I want to thank you, Ranking Member Engel and the members of this committee for having us here today and to give us this opportunity to discuss our efforts to reach a comprehensive solution to the challenge posed by Iran's nuclear program.    As we speak and as you mentioned, Secretary of State Kerry, Secretary of Energy Moniz, Under Secretary of State Sherman are in Switzerland with our P5+1 partners negotiating with the Government of Iran over the future of its nuclear program.    Our goal for these negotiations is to verifiably ensure that Iran's program is exclusively for peaceful purposes. To that end, we seek to cut off the four pathways that Iran could take to obtain enough fissile material for a nuclear weapon.    There are two uranium pathways through its activities at the Natanz and Fordow enrichment facilities, a plutonium pathway through Iran's heavy water reactor at Arak, and a potential covert pathway.    To cut off all of these pathways, any comprehensive arrangement must include exceptional constraints on Iran's nuclear program and extraordinary monitoring and intrusive and transparency measures that maximize the international community's ability to detect any attempt by Iran to break out overtly or covertly    As a practical matter, we are working to ensure that Iran, should it renege on its commitments, would take at least 1 year to produce enough fissile material for one nuclear weapon.    That would provide us with more than enough time to detect and act on any Iranian transgression. In exchange, the international community would provide Iran with phased, proportionate and reversible sanctions relief tied to verifiable actions on its part. If Iran were to violate its commitments, sanctions would be quickly reimposed.    It is Iran's responsibility to convince the world by building a track record of verified compliance that its nuclear program is exclusively peaceful. That is why we are seeking a time frame for a comprehensive deal of sufficient length to firmly establish such a track record.    Only then would Iran be treated like any other non-nuclear weapons state party to the nuclear Nonproliferation Treaty with all the rights but also all the obligations of an NPT state, including continued monitoring and inspections and a verifiably binding commitment to not build a nuclear weapon.    The Bush administration first proposed this concept for Iran. Dozens of countries around the world responsibly adhere to the NPT. Much has been said recently about the fact that a deal with Iran would have an eventual end date.    In fact, some constraints would be removed after a significant period of time, others would remain in effect even longer and some would last indefinitely, including a stringent and intrusive monitoring and inspections regime.    Iran would have to fully implement the IAEA safeguards agreement and the additional protocol. Together, these give inspectors access to all declared nuclear facilities and to any suspected undeclared facilities.    So even after some core constraints are completed, far more intrusive inspections will be required of Iran than before this agreement.    Some have argued that Iran would be free to develop a nuclear weapon at the conclusion of the comprehensive joint plan of action if we achieve it. That is simply not true.    To the contrary, Iran would be prohibited from developing a nuclear weapon in perpetuity and we would have a much greater ability to detect any effort by Iran to do so. Iran would be allowed to have a peaceful civilian nuclear program, continuously verified by the IAEA.    Our goal is to reach an agreement on the major elements of the deal by the end of this month and to complete the technical details by the end of June. There has been a lot of reporting in the press about where we are. This is what I can tell you as of today.    In Switzerland, the negotiations have been substantive and intense. We have made some progress on some of the core issues. Significant gaps remain on some of the other issues between what we and our partners in the P5+1 believe must be part of the comprehensive deal and what Iran is willing to do.    While the negotiations are taking place, it is vital, in our judgment, that we avoid any actions that would lead the world to believe that the United States was responsible for their failure.    Such actions include enacting new sanctions legislation now. New sanctions at this time, including through so-called trigger legislation, are unnecessary. Iran knows very well that if it refuses a reasonable agreement or reneges on its commitments, new sanctions can and will be passed in a matter of days.    New sanctions now would be inconsistent with our commitments under the interim agreement. They would undermine our sanctions coalition. They would give Iran an excuse to walk away from the talks or take a hard line that makes an agreement impossible to achieve while blaming the failure on us.    In our judgment, we also must avoid actions that call into question the President's authority to make commitments that the United States will keep. Negotiating with a foreign nation is the President's responsibility.    If there is confusion on this basic point, no foreign government will trust that when a President purports to speak for our country, he actually does.    In this case, such confusion could embolden hardliners in Iran, divide us from our allies, poison the prospects for a deal and make it much more difficult to sustain international support for the existing sanctions, never mind new ones, if negotiations collapse.    That international support is critical to the success of the sanctions regime that Congress took such an important role in building. Up until now, we have kept other countries onboard despite the hardship it has caused some of them, in large part because they are convinced we are serious about reaching a diplomatic solution. If they lose that conviction, the United States, not Iran, could be isolated and the sanctions regime could collapse.    Congress has played and will continue to play a central leading role in these efforts. Congressional legislation gave us the tools to get Iran to the negotiating table and, as has been noted, only Congress has the authority to lift sanctions as part of any comprehensive solution.    Since signing the interim deal, we have been on the Hill dozens of times to update on the progress of the talks--in all, more than 200 briefings, meetings, hearings and phone calls.    If we reach an agreement we will welcome intense robust scrutiny. We also will expect that any critics explain not only why the deal is lacking but also what would be a better alternative and how it could be achieved.    Our nuclear discussions with Iran do not alter our commitment to the security of our allies in the region who are deeply affected by Iran's efforts to spread instability and support terrorism. That commitment will not change with or without a deal.    We will retain the necessary tools and the determination to continue countering Iran's troubling behavior. Indeed, the most important thing we can do to keep Iran from feeling further emboldened is to deny them a nuclear weapon and we will continue to support those in Iran demanding greater respect for the universal human rights and rule of law that they deserve and we will continue to insist that Iran release Saeed Abedini, Amir Hekmati and Jason Rezaian and help us find Robert Levinson.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Mr. Szubin.</t>
   </si>
   <si>
-    <t>Szubin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Szubin. Thank you and good morning, Chairman Royce, Ranking Member Engel, distinguished members of the committee. It is a pleasure to be here today and thank you for the invitation.    This is my first appearance, as you noted, before a congressional committee in my new role as Acting Under Secretary for TFI at the Treasury Department.    In my time at Treasury, including 9 years leading the Office of Foreign Assets Control, or OFAC, I have devoted the majority of my working hours to building, honing and implementing sanctions on Iran--both executive sanctions and the strong congressional bipartisan sanctions that you all have enacted. So I am particularly appreciative of being able to testify here today on this vital issue.    The global architecture of our sanctions on Iran is unprecedented both in terms of its strength and the international foundations that underpin it. Working together with our partners around the world and with Congress, we have assembled a coalition that has fundamentally altered Iran's economic posture.    As a result, we today have a chance of resolving one of the world's most vexing and persistent security threats. At this critical juncture in the talks, it is important to note that Iran remains under massive strain and has no viable route to an economic recovery without negotiated relief from international sanctions.    This strain is visible across every sector in Iran's economy. First, their financial lifeline--oil. In 2012, Iran was exporting about 2.5 billion--I am sorry, 2.5 million barrels per day of oil to some 20 jurisdictions.    Today, Iran is exporting 60 percent less oil than just 3 years ago to just six jurisdictions. The losses, of course, have been compounded by the steep drop in global oil prices such that Iran's chief revenue source is today bringing in less than one quarter of what it brought in for Iran just 3 years ago.    Just as troubling for Iran is the fact that it can't freely access those revenues. It has a reduced stream of revenues that, thanks to Congress, are going into restricted accounts, either frozen or tied up in banks around the world.    Foreign investment in Iran has dropped precipitously. From 2004 to 2013, as foreign capital was pouring into developing countries, Iran saw an 80-percent drop in foreign investment.    Iran's oil minister recently estimated that Iran's oil, gas and petro-chem sectors will need approximately $170 billion to recover. The Iranian rial has depreciated 52 percent since 2012 and has lost 12 percent of its value just under the JPOA period alone as we have been negotiating.    The IMF for this coming year projects that Iran's economy will enter stagnation, with GDP growth falling to .6 percent. This is the lowest projected rate of any country the IMF looks at in the Middle East and North Africa region, including countries like Afghanistan that sell no oil.    Finally, Iran's banking sector remains isolated and holds a high proportion of nonperforming loans. As you can hear, their economy is under strain, but this sanctions pressure cannot be sustained without work.    Accordingly, over the JPOA period we have worked very intensively to enforce our sanctions. In the past 15 months, we have targeted nearly 100 actors, individuals and companies who were either helping Iran evade sanctions or helping Iran conduct other misconduct.    We have imposed nearly $\\1/2\\ billion in penalties on companies that were conducting illicit transactions under our Iran sanctions and we will not soften our enforcement of existing sanctions.    Now, as we speak, negotiators are hard at work trying to secure a joint comprehensive plan of action. Regardless of whether or not these negotiations succeed, I want to assure this committee that the Treasury Department and the administration as a whole are prepared for whatever comes next.    If we are able to secure a comprehensive understanding, we will structure nuclear-related sanctions relief in a way that is phased, proportionate and reversible. We will need to see verified steps on Iran's part before sanctions are lifted and we believe that powerful U.S. legislative sanctions should not be terminated for years to come so that we continue to retain important leverage years into a deal.    Alternatively, if we determine that a comprehensive deal with Iran cannot be obtained, the administration, working with Congress, is prepared to ratchet up the pressure. Over the past decade, we have developed very subtle insights into Iran's financial flows, its economic stress points and how it attempts to work around sanctions.    We stand ready to raise the costs on Iran substantially should it make clear that it is unwilling to address the international community's concerns. Of course, while we must prepare for every contingency, we remain hopeful that we can achieve a peaceful resolution to this serious and long-standing threat.    Thank you again for inviting me to appear here today and I look forward to taking your questions.</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Mr. Chairman.    Mr. Blinken, during your confirmation hearing in the Senate you had promised Senator Rubio and the Foreign Relations Committee that you and the administration would consult Congress on any policy changes the administration was seeking toward Cuba.    That turned out to be a complete falsehood. I worry that the Cuba example was a deliberate attempt by the administration to keep Congress in the dark regarding the Castro negotiations.    And why is this important? Not only because of the Cuba deal but of how that implicates the Iranian deal. Keeping us in the dark it foreshadows the administration's approach to Congress and keeping us out of the loop on the Iranian deal. The administration has made it clear that it does not want Congress to vote on the Iranian deal anytime soon.    But you just said to Mr. Royce that the U.N. Security Council will be having a vote, a binding vote, on the Iranian deal. Just to make it clear, you will be going to the U.N. Security Council to ask for a vote on the Iranian deal--yes or no?</t>
   </si>
   <si>
@@ -268,9 +253,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. We should remember why we are in this situation. The executive branch under the Bush administration refused to enforce sanctions and violated American statutes for the benefit of Iran for 8 continuous years.    The Bush administration prevented Congress from passing and used all of its power in Congress to prevent us passing new statutory sanctions. Now, that doesn't fit with the image we have of President Bush until you realize that at the time the sanctions all focused on international oil companies, which was not President Bush's target of choice.    Had we continued President Bush's policies--well, we should know that during the Bush administration Iran went from zero to 5,000 installed centrifuges--had we continued those policies, Iran would have $300 billion more available to it in cash right now because we have frozen $100 billion, and $200 billion has been lost to Iran in lost oil sales.    But it is not the executive branch but Congress that has had it right for the last 15 years, which is why I take such offense when I hear the administration say, Congress, if we have a view, we are interfering and undermining. When you read the United States Constitution you will see that when it comes to economic sanctions and international economics, all the power is vested in Congress except to the extent that the President negotiates a treaty that is ratified by the Senate.    Yet, I fear that what the administration is doing is using foreign ropes to tie the hands of the United States Congress because the foreign minister of Iran was able to cite Article 27 of the Vienna Convention on Treaties saying, well, the United States will be in violation of international law if Congress doesn't do whatever the President promises Congress will do.    I would--and the administration feeds into that when a high administration official declares foreign policy runs through the executive branch and the President and does not go through other channels.    I fear that we will have a situation where the executive branch comes to us and says, you have to take this action. You are prohibited from taking that action because you are going to hold the United States up to ridicule for being in violation of international law.    I would hope that you would look at the memo issued by the Carter Department of Justice that stated Congress may enact legislation modifying or abrogating executive agreements, and that if that was formally turned over to the Iran delegation, that would get us support under Article 46 of the Vienna Convention on Treaties.    I should point out for the record that in 2007, Senator Clinton introduced, with the co-sponsorships of Senator Obama and Senator Kerry, the Oversight of Iraq Agreements Act, which stated that any status of forces agreement between the United States and Iraq that was not a treaty approved by two-thirds of the Senate or authorized by legislation would not have the force of law and prohibited funding to implement that.    For the record, because I just don't have time to give you at this moment, I would like you to explain whether under the standards of the Obama administration the introduction of that act by those three senators constituted an interference with policy undermining President Bush's policy, et cetera.    But I want to focus on a particular question. There is a question here. I fear that you have misled this committee in telling us that once Iran has the rights of a non-nuclear state, subject to the additional protocol, that you will be able to stop sneak out because you have said first that, well, they can't develop a nuclear weapon because that would be illegal. That is a preposterous argument. Obviously, they are willing to break the law.    And the next point is that you have conjured up this idea there will be inspections. The question is, inspections of suspected sites. There is nothing in the additional protocol that adds to the NPT. The NPT was in force and it took 2 years after it was widely suspected that Fordow was a secret site for the IAEA to get there.    So why do you tell us that oh, this IAEA, it has worked fine for Japan and the Netherlands--it will work great for Iran--when it won't allow us to get in quickly to suspected sites? Mr. Deputy Secretary.</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. It does get a little tiring to keep being reminded that President Bush is responsible for all of our problems. After all of these years they are still blaming President Bush.</t>
   </si>
   <si>
@@ -346,9 +325,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman. Thank you for being here.    I think you can take back to the department how concerned this body is that we don't seem to be part of any of this negotiation and we don't seem--that we seem to be bypassed.    I remember when the Secretary was here. We talked about Cuba, and I asked him point blank about negotiations. They said that nothing was going on in exchange for Alan Gross.    Now we have a situation similar to what we had in those hearings. One of the questions that I have is, can you speak to how the U.N. Security Council resolutions are being handled in the negotiations?    Because once these sanctions are lifted, I think it is going to be virtually impossible to reimpose them because I don't think Russia and China are going to go along with it. They have veto powers. So how are we handling this?</t>
   </si>
   <si>
@@ -391,9 +367,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman.    Iran has repeatedly violated its obligations under the Nuclear Nonproliferation Treaty. It has built secret nuclear facilities. It has illicitly procured nuclear materials. It has denied IAEA inspectors access to the suspected facilities.    So isn't it foolish to trust them now? Wouldn't a bad deal be throwing Israel under the proverbial bus? And, because of Iran's intercontinental ballistic missile goals, placing the U.S. at great risk as well? Now, I know you are going to say something to the effect that we are not trusting or this is trusting and verifying, but there are a whole lot of us on both sides of the aisle who, clearly, aren't buying it.</t>
   </si>
   <si>
@@ -445,9 +418,6 @@
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman, and thanks to you and Ranking Member Engel. Thanks to our witnesses, Deputy Secretary Blinken and Acting Under Secretary Szubin. It is great to have you both here in your new roles.    Let me start with this. I understand that we are now approaching a deadline and I want to express my thanks, as I have every single time I have had the opportunity, for the focus on working to bring my constituent, Bob Levinson, home.    But as we approach these last days, let me just say that raising the issue at this point can no longer suffice, and that with respect to Pastor Abedini and Amir Hekmati and Jason Rezaian and Bob Levinson, if anyone is to take Iran seriously, that there is any commitment that they can make that can be adhered to, then the best show of good faith that they can make would be to return those Americans. I urge you to make that a priority. That is number one.    Next, I have been clear. I know we are not supposed to prejudge any deal but there are certainly things that would concern us in any deal that I think it is okay for us to address and I want to just go through a few of those.    First, a couple of straightforward questions. Deputy Secretary Blinken, will a final agreement and the technical annexes and side agreements be made public? Will they be readily available to Congress and to the public?</t>
   </si>
   <si>
@@ -496,9 +466,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McCaul. Thank you, Mr. Chairman.    Mr. Secretary, Section 1, 2 and 3 of the Atomic Energy Act, as you know, requires that all significant U.S. nuclear cooperation agreements must be approved by both houses of Congress.    Last year, Congress approved two such agreements, one with South Korea and the other one with Great Britain, who are our allies. However, in this case, when we are dealing with the world's leading state sponsor of terrorism, the position of this administration is that that should not be subject to approval by the United States Congress.    I don't quite understand that distinction. Can you explain that to me?</t>
   </si>
   <si>
@@ -529,9 +496,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. Thank you very much for being here and for giving us your insight on this very important issue.    I am hopeful that the ongoing negotiations will ultimately result in an agreement that we can get behind and I think, as our chairman and our ranking member said, many of us have a lot of questions about the details of a final agreement and in a letter I think we will express to you what some of those concerns are.    As I listen to the--my colleagues today, you know, guaranteeing that actors to a negotiated agreement are going to behave in a certain way is always difficult and we have no guarantee of that.    And so it seems to me what the goal of this agreement should be is to be sure that we set it out so that it is difficult for them to violate the agreement, that we make it certain that we can detect it if they do and that we have an opportunity to respond to it.    I mean, that is really the best we can do other than imagining that we can control the decisions of lots of other people.    And so with respect to that, last year the Pentagon's Defense Science Board released a report that found the U.S. Government mechanisms for detection and monitoring of small nuclear enterprises or covert facilities are ``either inadequate or, more often, do not exist.''    So in that context, how will we know and what are we doing to ensure that we would learn if Iran was pursuing a covert program, particularly after the sunset of a comprehensive agreement, and will the additional protocols in the NPT address this?    But isn't that a fair question to know? We are not particularly good at that from the sounds of it in general, and with respect to Iran in particular what are the protections?</t>
   </si>
   <si>
@@ -553,9 +517,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. I thank the gentlelady.    I have a lot of questions and I think you can answer many of them with just a yes or no. They are not gotcha questions. But unless I ask you to explain the answer, don't explain the answer, if you would.    The 10-year agreement or however many years it is going to be. Is the deal that the sanctions will be lifted--all of the penalties, I should say--after the agreement is over with whenever that is? With Iran, are the penalties coming to an end?</t>
   </si>
   <si>
@@ -661,9 +622,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Madam Chair. Thank you, gentlemen, for being here today.    Well, it does sound like the one thing that we all agree on is that Iran should not be able to get a nuclear weapon. I have a couple of questions. I want to--if I could just state them first and then you can answer.    First--my first question is if there is no deal, how long would it take Iran to--at this point, do you think, to break out to have a nuclear weapon?    It is interesting because I hear the frustration of so many of my colleagues about, you know, not trusting Iran. I think we--no one trusts Iran. But if we do not get a deal, we do not get a deal, is the alternative--the realistic alternative a military operation?    What would that look like? And if there was a military operation, how long do you think that could delay Iran from getting a nuclear weapon and what do you think would be the interim collateral damage? I mean, what would you--I am sure you have discussed this.    You know, what is the scenario of not having a deal? Now, and just to add to that, you have said, well, if there is no deal, then we are going to increase the sanctions. But I am assuming that you have made the calculation that we have taken them--that this is a time to get a deal. So you can respond to those thoughts.</t>
   </si>
   <si>
@@ -688,9 +646,6 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Madam Chair. And this has been a very informative hearing. Yesterday, we had a hearing on Iran as well. Mr. Deputy Secretary, do you believe Iran is present and active in the Western Hemisphere?</t>
   </si>
   <si>
@@ -769,9 +724,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank my friend.    Unfortunately, I have to begin by chastising my friend. You know, my friend, the chair, who is truly my friend, referred to the President having a temper tantrum about Prime Minister Netanyahu, and Mr. Chabot, my friend from Ohio, and he is also my friend, said there is no President who has done more to damage the U.S.-Israeli relationship.    I cannot let that go by. A foreign leader has insulted the head of state of the United States Government. It is not a temper tantrum and it didn't start with President Obama. It started with Bibi Netanyahu.    You can decide for yourself whether it was appropriate for him to speak to a joint session. But the process is beyond dispute.    It was an insult to this government. Friends don't act that way, and I would say to my friend, Mr. Chabot from Ohio, it would come as news to Shimon Peres, the outgoing President of Israel who gave President Obama the highest award that the Israeli Government can give, for his support of Israel.    At some point, does the partisan rhetoric ever stop? Where are your loyalties with respect to the prerogatives of this government and our country? And the shameless way Mr. Netanyahu has conducted himself deserves reproach and I think the President has actually shown restraint.    And I say this as somebody who has a 35-year record of unwavering support for Israel. I am not a critic of the Israeli Government. But I am a critic of how this Prime Minister has treated my President--everyone's President--and I cannot sit here and listen to the waving away of bad behavior that is an insult to my country.    We have one President, whether you like him or not, whether you want to take political issue with him or not. Fair enough. That is fair game.    But when a foreign leader insults him, that should not be fair game and that should never be apologized away because it damages relationships long-term. It puts a divide where there was never a divide in public opinion in my country and I worry about that long term. I hope you do too.    Let me say, Mr. Deputy Secretary, it seems to me there are five issues that Congress has to be concerned about. There is the broad extensional question, are we better with a deal or without.    I would argue that same Prime Minister of Israel has never supported any agreement with Iran even though we are where we are, and he would like zero centrifuges. He would like zero enrichment capability.    He would like a complete roll back so that there is no nuclear capability, and so would I. But I don't know anybody who can achieve that, realistically, and if you feel that, if those are your goals, the only option is what has euphemistically been called the kinetic option if you are not willing to accept any nuclear capability and I am not sure the American people support that. I am not even sure the Israeli people support that. Would you agree with that analysis, Mr. Deputy Secretary?</t>
   </si>
   <si>
@@ -793,9 +745,6 @@
     <t xml:space="preserve">    Chairman Royce. We will re-adjourn and go to Mr. Tom Emmer of Minnesota.</t>
   </si>
   <si>
-    <t>Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chair, and thank you to both the witnesses for being here today.    Just a couple of questions because you pretty much have been running the range today in front of the committee. But first, Mr. Blinken, thank you for being here, again, and thank you for your service.    Your opening remarks were assuring to somebody like me who wants to see the branches as they were constructed work the way they are supposed to and I just want to confirm, if you will bear with me.    I believe it is Article 1 Section 8 says that it is the sole responsibility of Congress to enter into agreements with foreign nations, which would include treaties or agreements such as the one that we have been discussing, and I believe that you confirmed that again this morning that it will be Congress's obligation to finalize, ratify any negotiated agreement.</t>
   </si>
   <si>
@@ -844,9 +793,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you. Mr. Secretary, is this the most complicated negotiation that the administration has been involved with internationally?</t>
   </si>
   <si>
@@ -893,9 +839,6 @@
   </si>
   <si>
     <t>412525</t>
-  </si>
-  <si>
-    <t>Ted S. Yoho</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Mr. Chairman, I appreciate it and I am not really sure where to start, I have so many questions, and just looking for clarification.    I think the best way to start is that there was a quote from President Dwight Eisenhower 60 years ago when he announced the Atoms for Peace program: ``One lesson is clear. Civilian nuclear programs flourish only through cooperation and openness. Secrecy and isolation are typically signs of a nuclear weapons program.''    I don't think that has differed and, you know, we look at Iran over the last 30 years and if you have you read, and I am sure you have, Ambassador John Bolton's book, ``Surrender is Not an Option,'' Iran has been moving steadily in this direction ever since then. They have played the cat and mouse game. They have lied and deceived.    It is a pure game of sophistry, and sophistry, as we all know, is a well orchestrated deception, misdirection and we call that a lie, in the country. And I see that going on with our nuclear negotiations and I mean that in the sense that I think it is great that we are negotiating to prevent them from getting nuclear arms but I think we are all in agreement they are going to get nuclear arms.    I have sat here for 2 years. I am going into the third year. We have had expert after expert after expert sitting where you are that said Iran within 6 months--that is when I first got here in January 2013--within 6 months to a year has enough fissile material for five to six bombs.    And so that has been over a year so I can only assume, because the experts like you have told us, they are going to have that. And for us to say no, they are not, and then you look at Iran has prevented the IAEA to go in to inspect, we have got evidence that they have detonated a nuclear trigger in the region of Parchin but they won't let the IAEA go in.    And going back to what President Eisenhower said is if they are not going to be forthright and honest and open, is it prudent for the United States of America to go forward with this versus backing up from the negotiation table and say, when you are serious, Iran, let us know and we will take the sanctions off.    Mr. Szubin, you brought up that Iran is in a crisis mode. They are in a hole. It will take over a $160 billion to get out of it. Yet, yesterday on the Western Hemisphere meeting we had the experts again and the report from the State Department said that Iran and Hezbollah has got the most activity they have ever had in the Western Hemisphere since 2009.    Iran is working with Iraq to beat ISIS so they are funding a war in Iraq. They have funded the takeover of Yemen, and I ask you is that the nation--is that the status of a nation that is in crisis and they are starving and they are on their last dollar?    Would they be investing money into that or would they investing it into their own country? What are your thoughts on that?</t>
@@ -1354,11 +1297,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1378,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1406,11 +1345,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1430,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1458,11 +1393,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1482,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1510,11 +1441,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1534,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1562,11 +1489,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1586,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1614,11 +1537,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1638,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1666,11 +1585,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1690,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1718,11 +1633,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1742,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1770,11 +1681,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1794,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1822,11 +1729,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1846,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1874,11 +1777,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1898,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1924,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1950,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1976,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2002,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2028,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2054,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2080,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2106,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2134,11 +2017,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2158,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2184,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2210,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2236,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2262,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2288,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2314,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2340,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2366,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2392,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2418,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2444,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2470,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2496,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2522,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2548,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2574,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2600,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2626,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2652,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2678,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2704,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2730,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2756,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2782,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2808,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2834,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2860,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2886,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2912,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2938,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2966,11 +2785,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2990,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>84</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3016,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3042,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>84</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3068,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3094,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>83</v>
-      </c>
-      <c r="G69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3120,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3148,11 +2953,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3172,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3198,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" t="s">
-        <v>84</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3224,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3250,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3276,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3302,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3328,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
         <v>93</v>
-      </c>
-      <c r="H78" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3354,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3380,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3406,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3432,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3458,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3484,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3510,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3538,11 +3313,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3562,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3588,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3614,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3640,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3666,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3692,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3718,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
+        <v>102</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>109</v>
-      </c>
-      <c r="G93" t="s">
-        <v>110</v>
-      </c>
-      <c r="H93" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3744,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3770,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3796,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3822,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3848,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3876,11 +3625,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3900,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>124</v>
-      </c>
-      <c r="G100" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3926,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3952,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G102" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3978,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4004,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
-      </c>
-      <c r="G104" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4030,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4056,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
-      </c>
-      <c r="G106" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4082,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4108,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s">
+        <v>116</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>125</v>
-      </c>
-      <c r="H108" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4134,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4160,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4186,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4212,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4238,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4264,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4292,11 +4009,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4316,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>142</v>
-      </c>
-      <c r="G116" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4342,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4368,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
-      </c>
-      <c r="G118" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4394,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4420,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4446,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4472,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G122" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4498,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4524,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>133</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>142</v>
-      </c>
-      <c r="G124" t="s">
-        <v>143</v>
-      </c>
-      <c r="H124" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4550,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4576,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>142</v>
-      </c>
-      <c r="G126" t="s">
+        <v>133</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
         <v>143</v>
-      </c>
-      <c r="H126" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4602,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4628,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4654,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4680,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4708,11 +4393,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4732,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
-      </c>
-      <c r="G132" t="s">
-        <v>160</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4758,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4784,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>159</v>
-      </c>
-      <c r="G134" t="s">
-        <v>160</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4810,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4836,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>159</v>
-      </c>
-      <c r="G136" t="s">
-        <v>160</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4862,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4888,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" t="s">
-        <v>160</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4914,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4942,11 +4609,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4966,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
-      </c>
-      <c r="G141" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4992,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5018,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G143" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5044,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5070,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>170</v>
-      </c>
-      <c r="G145" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5096,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>49</v>
-      </c>
-      <c r="G146" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5122,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>178</v>
-      </c>
-      <c r="G147" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5148,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5174,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>178</v>
-      </c>
-      <c r="G149" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5200,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5226,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>178</v>
-      </c>
-      <c r="G151" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5252,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5278,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>178</v>
-      </c>
-      <c r="G153" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5304,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5330,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>178</v>
-      </c>
-      <c r="G155" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5356,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5382,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
-      </c>
-      <c r="G157" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5408,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5434,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
-      </c>
-      <c r="G159" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5460,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5486,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
+        <v>166</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
         <v>178</v>
-      </c>
-      <c r="G161" t="s">
-        <v>179</v>
-      </c>
-      <c r="H161" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5512,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5538,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>178</v>
-      </c>
-      <c r="G163" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5564,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5590,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>178</v>
-      </c>
-      <c r="G165" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5616,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5642,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>178</v>
-      </c>
-      <c r="G167" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5668,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5694,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>178</v>
-      </c>
-      <c r="G169" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5720,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5746,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>178</v>
-      </c>
-      <c r="G171" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5772,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5798,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>178</v>
-      </c>
-      <c r="G173" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5824,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5850,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>178</v>
-      </c>
-      <c r="G175" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5876,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5902,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>178</v>
-      </c>
-      <c r="G177" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5928,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5954,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>178</v>
-      </c>
-      <c r="G179" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5980,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6006,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>178</v>
-      </c>
-      <c r="G181" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6032,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6058,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
-      </c>
-      <c r="G183" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6084,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>214</v>
-      </c>
-      <c r="G184" t="s">
-        <v>215</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6110,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6136,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>214</v>
-      </c>
-      <c r="G186" t="s">
-        <v>215</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6162,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6188,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>214</v>
-      </c>
-      <c r="G188" t="s">
-        <v>215</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6214,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6240,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
-      </c>
-      <c r="G190" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6266,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>223</v>
-      </c>
-      <c r="G191" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6292,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6318,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>223</v>
-      </c>
-      <c r="G193" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6344,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6370,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>223</v>
-      </c>
-      <c r="G195" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6396,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6422,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>223</v>
-      </c>
-      <c r="G197" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6448,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6474,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>223</v>
-      </c>
-      <c r="G199" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6500,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6526,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>223</v>
-      </c>
-      <c r="G201" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6552,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6578,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>223</v>
-      </c>
-      <c r="G203" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6604,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6630,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>223</v>
-      </c>
-      <c r="G205" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6656,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6682,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
+        <v>209</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
         <v>223</v>
-      </c>
-      <c r="G207" t="s">
-        <v>224</v>
-      </c>
-      <c r="H207" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6708,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6734,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>223</v>
-      </c>
-      <c r="G209" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6760,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6786,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>223</v>
-      </c>
-      <c r="G211" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6812,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6838,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>223</v>
-      </c>
-      <c r="G213" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6864,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6890,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>223</v>
-      </c>
-      <c r="G215" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6916,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
-      </c>
-      <c r="G216" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6942,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>223</v>
-      </c>
-      <c r="G217" t="s">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6968,13 +6479,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>49</v>
-      </c>
-      <c r="G218" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6994,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>250</v>
-      </c>
-      <c r="G219" t="s">
-        <v>251</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7020,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7046,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>250</v>
-      </c>
-      <c r="G221" t="s">
-        <v>251</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7072,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>49</v>
-      </c>
-      <c r="G222" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7098,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>250</v>
-      </c>
-      <c r="G223" t="s">
-        <v>251</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7124,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>49</v>
-      </c>
-      <c r="G224" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7152,11 +6649,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7176,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7202,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7228,13 +6719,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7254,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7280,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7306,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7332,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7358,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7384,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7410,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7436,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7462,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7488,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7516,11 +6985,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7540,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" t="s">
-        <v>259</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7568,11 +7033,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7592,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>275</v>
-      </c>
-      <c r="G242" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7618,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7644,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>275</v>
-      </c>
-      <c r="G244" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7670,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7696,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>275</v>
-      </c>
-      <c r="G246" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7722,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7748,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>275</v>
-      </c>
-      <c r="G248" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7774,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7800,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>275</v>
-      </c>
-      <c r="G250" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7826,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7852,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>275</v>
-      </c>
-      <c r="G252" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7878,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7904,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>275</v>
-      </c>
-      <c r="G254" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7930,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7956,13 +7391,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>275</v>
-      </c>
-      <c r="G256" t="s">
-        <v>276</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7982,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8010,11 +7441,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8034,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>292</v>
-      </c>
-      <c r="G259" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8060,13 +7487,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>18</v>
-      </c>
-      <c r="G260" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8086,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>292</v>
-      </c>
-      <c r="G261" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8112,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>18</v>
-      </c>
-      <c r="G262" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8138,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>292</v>
-      </c>
-      <c r="G263" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8164,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8190,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>292</v>
-      </c>
-      <c r="G265" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8216,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>18</v>
-      </c>
-      <c r="G266" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8242,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>292</v>
-      </c>
-      <c r="G267" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8268,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>18</v>
-      </c>
-      <c r="G268" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8294,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>292</v>
-      </c>
-      <c r="G269" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8320,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>18</v>
-      </c>
-      <c r="G270" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8346,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>292</v>
-      </c>
-      <c r="G271" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8372,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
-      </c>
-      <c r="G272" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8400,11 +7801,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8424,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8452,11 +7849,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8476,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8504,11 +7897,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8528,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8556,11 +7945,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8580,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>18</v>
-      </c>
-      <c r="G280" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
